--- a/FRCC_Grades_2013.xlsx
+++ b/FRCC_Grades_2013.xlsx
@@ -7279,8 +7279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="F13" s="25">
         <f>SUM(B2:B40)</f>
-        <v>707.5</v>
+        <v>708.5</v>
       </c>
       <c r="G13" s="25">
         <f>SUM(C2:C40)</f>
@@ -7458,7 +7458,7 @@
       </c>
       <c r="F14" s="27">
         <f>F13/G13</f>
-        <v>0.95608108108108103</v>
+        <v>0.95743243243243248</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -7708,7 +7708,7 @@
         <v>97</v>
       </c>
       <c r="B37" s="24">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C37" s="21">
         <v>15</v>
@@ -7773,7 +7773,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="25">
         <f>SUM(B2:B43)</f>
-        <v>707.5</v>
+        <v>708.5</v>
       </c>
       <c r="C44" s="25">
         <f>SUM(C2:C43)</f>
@@ -7781,7 +7781,7 @@
       </c>
       <c r="D44" s="13">
         <f>B44/C44</f>
-        <v>0.88437500000000002</v>
+        <v>0.885625</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -7794,7 +7794,7 @@
       </c>
       <c r="E46" s="25">
         <f>D46-F13</f>
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">

--- a/FRCC_Grades_2013.xlsx
+++ b/FRCC_Grades_2013.xlsx
@@ -7279,8 +7279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="57.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7439,7 +7439,7 @@
       </c>
       <c r="F13" s="25">
         <f>SUM(B2:B40)</f>
-        <v>708.5</v>
+        <v>738.5</v>
       </c>
       <c r="G13" s="25">
         <f>SUM(C2:C40)</f>
@@ -7458,7 +7458,7 @@
       </c>
       <c r="F14" s="27">
         <f>F13/G13</f>
-        <v>0.95743243243243248</v>
+        <v>0.99797297297297294</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -7718,7 +7718,9 @@
       <c r="A38" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="B38" s="24"/>
+      <c r="B38" s="24">
+        <v>30</v>
+      </c>
       <c r="C38" s="21">
         <v>30</v>
       </c>
@@ -7773,7 +7775,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="25">
         <f>SUM(B2:B43)</f>
-        <v>708.5</v>
+        <v>738.5</v>
       </c>
       <c r="C44" s="25">
         <f>SUM(C2:C43)</f>
@@ -7781,7 +7783,7 @@
       </c>
       <c r="D44" s="13">
         <f>B44/C44</f>
-        <v>0.885625</v>
+        <v>0.92312499999999997</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -7794,7 +7796,7 @@
       </c>
       <c r="E46" s="25">
         <f>D46-F13</f>
-        <v>11.5</v>
+        <v>-18.5</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
